--- a/output/google_maps_data_Klinik_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Klinik_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 581887</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>-7.793319</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.793319</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.367815</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.7933192,110.3497905,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.7933192,110.3497905,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -552,25 +546,24 @@
           <t>0813-2074-4100</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>-7.825618</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.825618</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.392285</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+PMI+Kota+Yogyakarta/@-7.8256184,110.3742606,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57d0e16494b3:0x8b4743ce94ddc40a!8m2!3d-7.8256184!4d110.392285!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11gnsw_cqg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+PMI+Kota+Yogyakarta/@-7.8256184,110.3742606,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57d0e16494b3:0x8b4743ce94ddc40a!8m2!3d-7.8256184!4d110.392285!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11gnsw_cqg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -593,25 +586,24 @@
           <t>(0274) 375396</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>-7.816164</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.816164</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.362753</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gading/@-7.8161639,110.3447288,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bc475c6239:0xdcced27faa17de26!8m2!3d-7.8161639!4d110.3627532!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1hc1__wx5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gading/@-7.8161639,110.3447288,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bc475c6239:0xdcced27faa17de26!8m2!3d-7.8161639!4d110.3627532!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1hc1__wx5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -630,25 +622,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.803633</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.803633</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.367778</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Yudonegaran/@-7.8161639,110.3447288,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5785a0c7b391:0x2640f2b871d6d8f5!8m2!3d-7.8036334!4d110.3677778!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzsdh7_b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Yudonegaran/@-7.8161639,110.3447288,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5785a0c7b391:0x2640f2b871d6d8f5!8m2!3d-7.8036334!4d110.3677778!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bzsdh7_b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>0812-2866-0300</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.806517</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.806517</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.350446</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.3324218,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+24+Jam+Firdaus/@-7.8065174,110.3324218,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f2729c8429:0xa918fd6f5e4f4e53!8m2!3d-7.8065174!4d110.3504462!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bvv5czn3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -716,25 +706,24 @@
           <t>(0274) 5015721</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.78861</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.78861</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.375468</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CT+KLINIK+YOGYAKARTA/@-7.7886099,110.3574439,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59464e241fc7:0x76ff0ec4c474012!8m2!3d-7.7886099!4d110.3754683!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11j3tm4lt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CT+KLINIK+YOGYAKARTA/@-7.7886099,110.3574439,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59464e241fc7:0x76ff0ec4c474012!8m2!3d-7.7886099!4d110.3754683!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11j3tm4lt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -761,25 +750,24 @@
           <t>0819-0969-0529</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-7.813005</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.813005</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.358844</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+D%E2%80%99Maryam/@-7.8130055,110.3408199,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a573732bb012f:0x7ca127b9cf5bfbc3!8m2!3d-7.8130055!4d110.3588443!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgESbWF0ZXJuaXR5X2hvc3BpdGFs4AEA!16s%2Fg%2F11mnkvvcwt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+D%E2%80%99Maryam/@-7.8130055,110.3408199,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a573732bb012f:0x7ca127b9cf5bfbc3!8m2!3d-7.8130055!4d110.3588443!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgESbWF0ZXJuaXR5X2hvc3BpdGFs4AEA!16s%2Fg%2F11mnkvvcwt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -806,25 +794,24 @@
           <t>0896-0713-0429</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.780727</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.780727</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.373121</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Medikatama+Jogja/@-7.7807273,110.3550962,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5833f839c219:0xa507a05224c9dac4!8m2!3d-7.7807273!4d110.3731206!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f085jr4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Medikatama+Jogja/@-7.7807273,110.3550962,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5833f839c219:0xa507a05224c9dac4!8m2!3d-7.7807273!4d110.3731206!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f085jr4n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -847,25 +834,24 @@
           <t>(0274) 566795</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>-7.801945</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.801945</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.395451</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Panasea/@-7.801945,110.3774266,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57643145823b:0x1b887d0487605ad8!8m2!3d-7.801945!4d110.395451!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b67m90cp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Panasea/@-7.801945,110.3774266,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57643145823b:0x1b887d0487605ad8!8m2!3d-7.801945!4d110.395451!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b67m90cp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -892,25 +878,24 @@
           <t>0811-1150-0115</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>-7.797613</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.797613</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.3853</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Telkomedika+Yogyakarta/@-7.7976133,110.3672758,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57aecac67949:0x577e56ba9ee5d0e7!8m2!3d-7.7976133!4d110.3853002!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11tn_2my86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Telkomedika+Yogyakarta/@-7.7976133,110.3672758,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57aecac67949:0x577e56ba9ee5d0e7!8m2!3d-7.7976133!4d110.3853002!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11tn_2my86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -933,25 +918,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.788567</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.788567</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.365469</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mediska+Yogyakarta/@-7.7885672,110.3474445,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58259a59fbe7:0x7b584e874ddd4488!8m2!3d-7.7885672!4d110.3654689!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11fy4ny7hf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mediska+Yogyakarta/@-7.7885672,110.3474445,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58259a59fbe7:0x7b584e874ddd4488!8m2!3d-7.7885672!4d110.3654689!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11fy4ny7hf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -978,25 +962,24 @@
           <t>(0274) 4281909</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.825516</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.825516</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.388476</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Utama+Ultra+Medica+Yogyakarta/@-7.8255162,110.3704514,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a570b3116ead1:0x946390a340f08fe2!8m2!3d-7.8255162!4d110.3884758!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzr3fk86?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1015,25 +998,24 @@
           <t>0823-3233-7785</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>3.9</v>
+        <v>-7.777473</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.777473</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.36074</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Tirta+Medical+Centre+Yogyakarta/@-7.7774733,110.3427155,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59bb254b5cb9:0x9aed8757831abb33!8m2!3d-7.7774733!4d110.3607399!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11sf6rjmgp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Tirta+Medical+Centre+Yogyakarta/@-7.7774733,110.3427155,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59bb254b5cb9:0x9aed8757831abb33!8m2!3d-7.7774733!4d110.3607399!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11sf6rjmgp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1056,25 +1038,24 @@
           <t>0882-3324-9444</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.82433</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.82433</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.361297</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+BKM+Ali+Maksum/@-7.8243298,110.3432723,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57ba216fb9bf:0xdc56df43f9a90221!8m2!3d-7.8243298!4d110.3612967!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjhs_lkq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+BKM+Ali+Maksum/@-7.8243298,110.3432723,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57ba216fb9bf:0xdc56df43f9a90221!8m2!3d-7.8243298!4d110.3612967!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11cjhs_lkq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -1097,25 +1078,24 @@
           <t>(0274) 4331903</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.9</v>
+        <v>-7.784086</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.784086</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.386507</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Titian+Medika/@-7.7840861,110.3684824,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59ce3b2d4db7:0x9005a09e977bfbef!8m2!3d-7.7840861!4d110.3865068!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g8fz5cgt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Titian+Medika/@-7.7840861,110.3684824,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59ce3b2d4db7:0x9005a09e977bfbef!8m2!3d-7.7840861!4d110.3865068!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11g8fz5cgt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1138,25 +1118,24 @@
           <t>0851-5999-0136</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.810815</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.810815</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.387047</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Umbulharjo/@-7.810815,110.3690224,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57ab5ce2ce69:0x1d3b842367e05f74!8m2!3d-7.810815!4d110.3870468!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11lrd7w3p7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+PKU+Muhammadiyah+Umbulharjo/@-7.810815,110.3690224,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57ab5ce2ce69:0x1d3b842367e05f74!8m2!3d-7.810815!4d110.3870468!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11lrd7w3p7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1179,25 +1158,24 @@
           <t>(0274) 388984</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>-7.810823</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.810823</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.369092</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Brimedika+Yogyakarta/@-7.8108235,110.3510675,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af7ba733f61ad:0x4e759116929e53c!8m2!3d-7.8108235!4d110.3690919!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzrxnlxj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Brimedika+Yogyakarta/@-7.8108235,110.3510675,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af7ba733f61ad:0x4e759116929e53c!8m2!3d-7.8108235!4d110.3690919!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzrxnlxj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1224,25 +1202,24 @@
           <t>(0274) 6499649</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.799339</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.799339</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.3297</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.3116752,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+PMI+DIY/@-7.7993388,110.3116752,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af9c881176c97:0xa2a9ea24243790fb!8m2!3d-7.7993388!4d110.3296996!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11mv4smwq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1269,25 +1246,24 @@
           <t>(0274) 512804</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-7.800747</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.800747</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.373769</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Intan/@-7.8007473,110.3557446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578158db10d7:0x3f3967e8bc294c7c!8m2!3d-7.8007473!4d110.373769!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6lgw9l6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Intan/@-7.8007473,110.3557446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578158db10d7:0x3f3967e8bc294c7c!8m2!3d-7.8007473!4d110.373769!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6lgw9l6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1306,25 +1282,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.781909</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.781909</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.34557</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Poltekkes+Kemenkes+Yogyakarta/@-7.7819089,110.3275452,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5811816f8bfb:0x54d37d121fa324cc!8m2!3d-7.7819089!4d110.3455696!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw2h2s75?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Poltekkes+Kemenkes+Yogyakarta/@-7.7819089,110.3275452,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5811816f8bfb:0x54d37d121fa324cc!8m2!3d-7.7819089!4d110.3455696!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw2h2s75?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1351,25 +1326,24 @@
           <t>(0274) 586767</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>-7.78525</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.78525</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.357066</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Adhiwarga+PKBI+Daerah+Istimewa+Yogyakarta/@-7.7852501,110.3390413,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583d2354d36f:0xf0ec4bd5f09f2350!8m2!3d-7.7852501!4d110.3570657!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEacmVwcm9kdWN0aXZlX2hlYWx0aF9jbGluaWPgAQA!16s%2Fg%2F12qf7h9yr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Adhiwarga+PKBI+Daerah+Istimewa+Yogyakarta/@-7.7852501,110.3390413,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583d2354d36f:0xf0ec4bd5f09f2350!8m2!3d-7.7852501!4d110.3570657!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEacmVwcm9kdWN0aXZlX2hlYWx0aF9jbGluaWPgAQA!16s%2Fg%2F12qf7h9yr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1396,25 +1370,24 @@
           <t>0813-9031-3322</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-7.807982</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.807982</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.377343</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Prima+Medika/@-7.8079824,110.3593189,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a579d739b427d:0x2799719c2b5fd870!8m2!3d-7.8079824!4d110.3773433!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F119tpy4cm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Prima+Medika/@-7.8079824,110.3593189,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a579d739b427d:0x2799719c2b5fd870!8m2!3d-7.8079824!4d110.3773433!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgENZGVudGFsX2NsaW5pY-ABAA!16s%2Fg%2F119tpy4cm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1437,25 +1410,24 @@
           <t>(0274) 513357</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.797936</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.797936</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.376133</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Khadijah/@-7.8079824,110.3593189,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5780533e4605:0xf8ad543e9ce91a0!8m2!3d-7.7979364!4d110.3761334!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEMYmlydGhfY2VudGVy4AEA!16s%2Fg%2F11b6lk_rbg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Khadijah/@-7.8079824,110.3593189,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5780533e4605:0xf8ad543e9ce91a0!8m2!3d-7.7979364!4d110.3761334!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEMYmlydGhfY2VudGVy4AEA!16s%2Fg%2F11b6lk_rbg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1474,25 +1446,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.797623</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.797623</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.359919</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+dr.+Fitri+Sukmawati/@-7.7976228,110.3418949,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578a15954f81:0xa7a037738701a2d2!8m2!3d-7.7976228!4d110.3599193!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f3164tsg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+dr.+Fitri+Sukmawati/@-7.7976228,110.3418949,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578a15954f81:0xa7a037738701a2d2!8m2!3d-7.7976228!4d110.3599193!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f3164tsg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1516,22 +1487,21 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.805472</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.805472</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.367582</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+KURET+DR.+SANIA+YOGYAKARTA+SEDIA+OBAT/@-7.7976228,110.3418949,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57eff7c39aad:0x68add7df2048afb2!8m2!3d-7.8054718!4d110.3675822!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11y47zrnjy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1550,25 +1520,24 @@
           <t>(0274) 7465576</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.788627</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.788627</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.365509</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kesehatan+PT.+KAI/@-7.7976228,110.3418949,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58259ba6eb61:0x36797500cd1cbe8c!8m2!3d-7.788627!4d110.3655089!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6hwl1pr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kesehatan+PT.+KAI/@-7.7976228,110.3418949,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a58259ba6eb61:0x36797500cd1cbe8c!8m2!3d-7.788627!4d110.3655089!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6hwl1pr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1591,25 +1560,24 @@
           <t>(0274) 5027176</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.78268</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.78268</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.362188</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Intibios+Lab,+Klinik+%26+Farmasi+Yogyakarta/@-7.7826802,110.3441638,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59ac975e5325:0xd2fae3d75bc865e!8m2!3d-7.7826802!4d110.3621882!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11tjpsxvqj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Intibios+Lab,+Klinik+%26+Farmasi+Yogyakarta/@-7.7826802,110.3441638,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59ac975e5325:0xd2fae3d75bc865e!8m2!3d-7.7826802!4d110.3621882!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11tjpsxvqj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1636,25 +1604,24 @@
           <t>(0274) 555961</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.6</v>
+        <v>-7.78278</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.78278</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.36459</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Golden+Klinik+Kecantikan+Pria+%26+Wanita/@-7.7826802,110.3441638,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583a591cbd6b:0x3fdd796b4d466b17!8m2!3d-7.7827796!4d110.3645902!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F1hm6h6wk_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Golden+Klinik+Kecantikan+Pria+%26+Wanita/@-7.7826802,110.3441638,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583a591cbd6b:0x3fdd796b4d466b17!8m2!3d-7.7827796!4d110.3645902!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F1hm6h6wk_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1677,25 +1644,24 @@
           <t>(0274) 377114</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.814974</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.814974</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.397456</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Puri+Adisty/@-7.8149743,110.3794319,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5714b187ee35:0xb4e6fc3058d2b6b6!8m2!3d-7.8149743!4d110.3974563!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQxiaXJ0aF9jZW50ZXLgAQA!16s%2Fg%2F1ptwy9z02?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Puri+Adisty/@-7.8149743,110.3794319,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5714b187ee35:0xb4e6fc3058d2b6b6!8m2!3d-7.8149743!4d110.3974563!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQxiaXJ0aF9jZW50ZXLgAQA!16s%2Fg%2F1ptwy9z02?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>15 jam lalu</t>
         </is>
@@ -1719,22 +1685,21 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.800734</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.800734</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.372283</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kuret+Dr.+Mirna+Yogyakarta/@-7.8007342,110.3542589,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57e063ac3f6b:0x6526b64c5e830314!8m2!3d-7.8007342!4d110.3722833!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vs_4r0r9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1757,25 +1722,24 @@
           <t>0899-5460-208</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>-7.795333</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.795333</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.369153</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yogyakarta+Klinik+Kuret+Dr.+Syantika+Resmi/@-7.8007342,110.3542589,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a596025cfeb39:0x7e8546d0f0ef9f23!8m2!3d-7.7953327!4d110.3691531!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11vdwxfytg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yogyakarta+Klinik+Kuret+Dr.+Syantika+Resmi/@-7.8007342,110.3542589,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a596025cfeb39:0x7e8546d0f0ef9f23!8m2!3d-7.7953327!4d110.3691531!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11vdwxfytg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1798,25 +1762,24 @@
           <t>(0274) 4283532</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.813998</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.813998</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.363338</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK,+LABORATORIUM,+APOTEK+dan+ALAT+KESEHATAN+ASTA+MEDIKA/@-7.8139982,110.3453132,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5796ff29c13b:0xc0d0a82a8e58284b!8m2!3d-7.8139982!4d110.3633376!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f2wf6ypf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK,+LABORATORIUM,+APOTEK+dan+ALAT+KESEHATAN+ASTA+MEDIKA/@-7.8139982,110.3453132,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5796ff29c13b:0xc0d0a82a8e58284b!8m2!3d-7.8139982!4d110.3633376!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f2wf6ypf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1835,25 +1798,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.3</v>
+        <v>-7.797549</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.797549</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.360697</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bhayangkara+Polresta+Yogyakarta/@-7.7975486,110.3426724,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5789f55a17d9:0xf734a64beceb3faa!8m2!3d-7.7975486!4d110.3606968!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11g8fy9bk0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bhayangkara+Polresta+Yogyakarta/@-7.7975486,110.3426724,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5789f55a17d9:0xf734a64beceb3faa!8m2!3d-7.7975486!4d110.3606968!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEIaG9zcGl0YWzgAQA!16s%2Fg%2F11g8fy9bk0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1880,25 +1842,24 @@
           <t>(0274) 563656</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.788689</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.788689</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.375273</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Laboratorium+Klinik+Cito+Yogyakarta/@-7.7886895,110.3572484,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582cc2a61f57:0xd575771373af7b33!8m2!3d-7.7886895!4d110.3752728!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgELbWVkaWNhbF9sYWLgAQA!16s%2Fg%2F1tqbfg4m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Laboratorium+Klinik+Cito+Yogyakarta/@-7.7886895,110.3572484,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582cc2a61f57:0xd575771373af7b33!8m2!3d-7.7886895!4d110.3752728!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgELbWVkaWNhbF9sYWLgAQA!16s%2Fg%2F1tqbfg4m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1921,25 +1882,24 @@
           <t>0878-3826-3715</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.9</v>
+        <v>-7.801137</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.801137</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.373264</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr.+Tri+Kusumo+Bawono/@-7.7886895,110.3572484,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57a89731458f:0x93ed851dfc4bc815!8m2!3d-7.8011371!4d110.373264!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f7nl2wbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr.+Tri+Kusumo+Bawono/@-7.7886895,110.3572484,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57a89731458f:0x93ed851dfc4bc815!8m2!3d-7.8011371!4d110.373264!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f7nl2wbp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1958,25 +1918,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>-7.818578</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.818578</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.362138</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Respira+UPKPM+Minggiran/@-7.8185775,110.3441136,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bdc78477f9:0x4ef1c36b866cb3c1!8m2!3d-7.8185775!4d110.362138!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw150706?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Respira+UPKPM+Minggiran/@-7.8185775,110.3441136,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bdc78477f9:0x4ef1c36b866cb3c1!8m2!3d-7.8185775!4d110.362138!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11bw150706?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1999,25 +1958,24 @@
           <t>(0274) 566855</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.6</v>
+        <v>-7.794757</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.794757</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.356469</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+KD/@-7.7947571,110.3384446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582046f27fb7:0xd7178979ae9e152b!8m2!3d-7.7947571!4d110.356469!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6gjj468?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+KD/@-7.7947571,110.3384446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582046f27fb7:0xd7178979ae9e152b!8m2!3d-7.7947571!4d110.356469!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6gjj468?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2036,25 +1994,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.7</v>
+        <v>-7.793801</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.793801</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.36289</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Sosro+Anugrah/@-7.7947571,110.3384446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a596673b0cc95:0x8bba1ccdfb907571!8m2!3d-7.7938011!4d110.3628901!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f8hsv5yg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Sosro+Anugrah/@-7.7947571,110.3384446,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a596673b0cc95:0x8bba1ccdfb907571!8m2!3d-7.7938011!4d110.3628901!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11f8hsv5yg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2081,25 +2038,24 @@
           <t>(0274) 8010022</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.9</v>
+        <v>-7.815394</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.815394</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.389063</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mata+Jogja/@-7.8153939,110.371039,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a577adf940409:0x4b114eea61ffca76!8m2!3d-7.8153939!4d110.3890634!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEUb3BodGhhbG1vbG9neV9jbGluaWPgAQA!16s%2Fg%2F11twq37l3k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mata+Jogja/@-7.8153939,110.371039,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a577adf940409:0x4b114eea61ffca76!8m2!3d-7.8153939!4d110.3890634!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEUb3BodGhhbG1vbG9neV9jbGluaWPgAQA!16s%2Fg%2F11twq37l3k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2123,22 +2079,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.804307</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.804307</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.369165</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Dr.+Bimo+Yogyakarta/@-7.8043072,110.3511403,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a577777dd3bb9:0x8de93503aa6f40e0!8m2!3d-7.8043072!4d110.3691647!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11vt8b55m6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2161,25 +2116,24 @@
           <t>(0274) 553838</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.8</v>
+        <v>-7.785574</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.785574</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.375635</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ZAP+Premiere+-+Yogyakarta/@-7.7855735,110.3576103,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cc24873069:0xc28c98e1fb4599f4!8m2!3d-7.7855735!4d110.3756347!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1pyqfq1h5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ZAP+Premiere+-+Yogyakarta/@-7.7855735,110.3576103,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cc24873069:0xc28c98e1fb4599f4!8m2!3d-7.7855735!4d110.3756347!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1pyqfq1h5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2202,25 +2156,24 @@
           <t>0877-3831-2062</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>-7.815014</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.815014</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.359287</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Dokter+Yos+Benito/@-7.8150135,110.3412625,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5795ebb9f361:0x67a535d488ecb1c8!8m2!3d-7.8150135!4d110.3592869!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ53YWxrX2luX2NsaW5pY-ABAA!16s%2Fg%2F1pzr6f596?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2239,25 +2192,24 @@
           <t>(0274) 5015097</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>3.6</v>
+        <v>-7.772929</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.772929</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.361404</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Sehat+Sejahtera/@-7.7729295,110.3433793,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5847279e5ac3:0x47ebe720f48f8572!8m2!3d-7.7729295!4d110.3614037!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzpq923t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Sehat+Sejahtera/@-7.7729295,110.3433793,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5847279e5ac3:0x47ebe720f48f8572!8m2!3d-7.7729295!4d110.3614037!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzpq923t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2280,25 +2232,24 @@
           <t>0882-0051-40010</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F45" t="n">
-        <v>3.7</v>
+        <v>-7.787764</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.787764</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.362671</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Pelita+Kasih/@-7.7729295,110.3433793,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5824ee40de9d:0x44fa133720e11a49!8m2!3d-7.7877639!4d110.3626706!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11f1mwwy8b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Pelita+Kasih/@-7.7729295,110.3433793,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5824ee40de9d:0x44fa133720e11a49!8m2!3d-7.7877639!4d110.3626706!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11f1mwwy8b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2325,25 +2276,24 @@
           <t>(0274) 555599</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.779337</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.779337</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.375282</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Estetika+dr.+Affandi+-+Yogyakarta/@-7.7793366,110.3572571,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5834bf91ad21:0x334af0537cef8843!8m2!3d-7.7793366!4d110.3752815!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1ptx4jzkh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Estetika+dr.+Affandi+-+Yogyakarta/@-7.7793366,110.3572571,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5834bf91ad21:0x334af0537cef8843!8m2!3d-7.7793366!4d110.3752815!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1ptx4jzkh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2370,25 +2320,24 @@
           <t>0811-2957-702</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>-7.785249</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.785249</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.379023</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Medglow+Aesthetic+Clinic/@-7.7793366,110.3572571,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5924c87fe19d:0x2b027ea5a7b9a34d!8m2!3d-7.7852491!4d110.3790228!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11k868zvq3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Medglow+Aesthetic+Clinic/@-7.7793366,110.3572571,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5924c87fe19d:0x2b027ea5a7b9a34d!8m2!3d-7.7852491!4d110.3790228!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11k868zvq3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2415,25 +2364,24 @@
           <t>(0274) 4286371</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.5</v>
+        <v>-7.821675</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.821675</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.367987</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kimia+Farma+Parangtritis/@-7.8216753,110.3499626,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57dd5d1cf4b3:0xe754136ee2e30fab!8m2!3d-7.8216753!4d110.367987!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11kr7qqdvh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kimia+Farma+Parangtritis/@-7.8216753,110.3499626,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57dd5d1cf4b3:0xe754136ee2e30fab!8m2!3d-7.8216753!4d110.367987!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11kr7qqdvh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2460,25 +2408,24 @@
           <t>(0274) 5018599</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.8</v>
+        <v>-7.788215</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.788215</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.372095</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Naavagreen+Plus+(by+Dr.+Fredi+Setyawan)/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5959eb30bc4b:0x4512d623339e13f9!8m2!3d-7.7882154!4d110.3720954!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11hgj5ppyl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Naavagreen+Plus+(by+Dr.+Fredi+Setyawan)/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5959eb30bc4b:0x4512d623339e13f9!8m2!3d-7.7882154!4d110.3720954!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11hgj5ppyl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2505,25 +2452,24 @@
           <t>0813-2795-9898</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.7</v>
+        <v>-7.785371</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.785371</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.374308</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Miracle+Aesthetic+Clinic+Yogyakarta/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583276eb8ccd:0x435a80449dad4084!8m2!3d-7.7853706!4d110.3743081!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hc1n794z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Miracle+Aesthetic+Clinic+Yogyakarta/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583276eb8ccd:0x435a80449dad4084!8m2!3d-7.7853706!4d110.3743081!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hc1n794z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2550,25 +2496,24 @@
           <t>(0274) 558181</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.78531</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.78531</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.374112</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Erha+Derma+Center+Yogyakarta/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a585c00000073:0xa2878d1672e5bcbe!8m2!3d-7.7853099!4d110.3741119!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hc5g97fr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Erha+Derma+Center+Yogyakarta/@-7.7882154,110.354071,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a585c00000073:0xa2878d1672e5bcbe!8m2!3d-7.7853099!4d110.3741119!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hc5g97fr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2591,25 +2536,24 @@
           <t>0812-3299-9200</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.4</v>
+        <v>-7.75009</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.75009</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.40924</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+PRATAMA+DELIMA/@-7.7500897,110.3912155,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a591d4bc417fd:0x4e039b2289ffc2cb!8m2!3d-7.7500897!4d110.4092399!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11rwl1w4cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2628,25 +2572,24 @@
           <t>(0274) 524722</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.794039</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.794039</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.377614</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Laboratorium+Patria/@-7.794039,110.3595896,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582ac7a9e341:0x345d1561690aad3a!8m2!3d-7.794039!4d110.377614!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzsfhxgn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Laboratorium+Patria/@-7.794039,110.3595896,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582ac7a9e341:0x345d1561690aad3a!8m2!3d-7.794039!4d110.377614!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzsfhxgn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2669,25 +2612,24 @@
           <t>(0274) 371366</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>-7.812174</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.812174</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.368679</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bellissima+Skin+Clinic/@-7.8121742,110.3506541,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57999110da8f:0x3bf881e995344960!8m2!3d-7.8121742!4d110.3686785!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11bzrhbvt4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bellissima+Skin+Clinic/@-7.8121742,110.3506541,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57999110da8f:0x3bf881e995344960!8m2!3d-7.8121742!4d110.3686785!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11bzrhbvt4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2714,25 +2656,24 @@
           <t>(0274) 586688</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>-7.783442</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.783442</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.378866</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Philia/@-7.7834417,110.3608414,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cd33e8b16f:0x248d5f956951e3a6!8m2!3d-7.7834417!4d110.3788658!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pztxp8l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Philia/@-7.7834417,110.3608414,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cd33e8b16f:0x248d5f956951e3a6!8m2!3d-7.7834417!4d110.3788658!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pztxp8l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2759,25 +2700,24 @@
           <t>(0274) 378896</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.9</v>
+        <v>-7.819024</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.819024</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.361901</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Paramedika+Yogyakarta/@-7.8190241,110.3438769,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bdcee6d919:0x5afbe87f868981d5!8m2!3d-7.8190241!4d110.3619013!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzt06p7h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Paramedika+Yogyakarta/@-7.8190241,110.3438769,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bdcee6d919:0x5afbe87f868981d5!8m2!3d-7.8190241!4d110.3619013!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F1pzt06p7h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2796,25 +2736,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>-7.804058</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.804058</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.373817</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Pengobatan+Lanal/@-7.804058,110.3557929,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578381e7a057:0x3d51ea068451b8c6!8m2!3d-7.804058!4d110.3738173!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F11bc7pyf6n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Pengobatan+Lanal/@-7.804058,110.3557929,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578381e7a057:0x3d51ea068451b8c6!8m2!3d-7.804058!4d110.3738173!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F11bc7pyf6n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2837,25 +2776,24 @@
           <t>0819-0375-1444</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.6</v>
+        <v>-7.777977</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.777977</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.380032</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalista+Klinik+(Spesialis+Kulit+dan+Kelamin)/@-7.7779766,110.3620075,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cb22ac7d45:0x1493f9de3262b0d0!8m2!3d-7.7779766!4d110.3800319!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c2j2qcj3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kalista+Klinik+(Spesialis+Kulit+dan+Kelamin)/@-7.7779766,110.3620075,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cb22ac7d45:0x1493f9de3262b0d0!8m2!3d-7.7779766!4d110.3800319!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c2j2qcj3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2882,25 +2820,24 @@
           <t>(0274) 4352268</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.9</v>
+        <v>-7.819362</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.819362</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.401161</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Azqiara+Klinik+Estetik+Wanita/@-7.8193625,110.3831363,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5719e6c684f7:0x95a200f8392242cc!8m2!3d-7.8193625!4d110.4011607!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY-ABAA!16s%2Fg%2F11h3d2097r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Azqiara+Klinik+Estetik+Wanita/@-7.8193625,110.3831363,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5719e6c684f7:0x95a200f8392242cc!8m2!3d-7.8193625!4d110.4011607!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY-ABAA!16s%2Fg%2F11h3d2097r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2923,25 +2860,24 @@
           <t>(0274) 566863</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.799402</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.799402</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.402058</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kesehatan+Ylh+Yogyakarta/@-7.7994025,110.3840338,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a576754b23859:0x91c8f155c34d79a3!8m2!3d-7.7994025!4d110.4020582!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b633nj2r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kesehatan+Ylh+Yogyakarta/@-7.7994025,110.3840338,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a576754b23859:0x91c8f155c34d79a3!8m2!3d-7.7994025!4d110.4020582!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b633nj2r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2964,25 +2900,24 @@
           <t>(0274) 566863</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-7.797008</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.797008</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.356431</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kecantikan+Pratama+Ilona+Aesthetic/@-7.7970079,110.3384061,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5740226e681f:0x8b4bb80476e61e4!8m2!3d-7.7970079!4d110.3564305!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11h7rmt9gd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3005,25 +2940,24 @@
           <t>(0274) 510378</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.5</v>
+        <v>-7.80153</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.80153</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.376979</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PRAMITA+Lab/@-7.8015305,110.3589549,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57823d893fd7:0xfa51ca6b8b08932a!8m2!3d-7.8015305!4d110.3769793!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQttZWRpY2FsX2xhYpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSME0wbHVORVZuRUFF4AEA-gEECCwQRg!16s%2Fg%2F11bvvzvjxs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PRAMITA+Lab/@-7.8015305,110.3589549,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57823d893fd7:0xfa51ca6b8b08932a!8m2!3d-7.8015305!4d110.3769793!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQttZWRpY2FsX2xhYpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSME0wbHVORVZuRUFF4AEA-gEECCwQRg!16s%2Fg%2F11bvvzvjxs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3050,25 +2984,24 @@
           <t>0818-0250-1155</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.9</v>
+        <v>-7.798013</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.798013</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.394251</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Elisa+Family+Healthcare+Yogyakarta/@-7.7980134,110.3762263,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5763b0465fe7:0xaa31bcc8b6528dbc!8m2!3d-7.7980134!4d110.3942507!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARJhY3VwdW5jdHVyZV9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNiVXRwVm05M1JSQULgAQD6AQQIABBJ!16s%2Fg%2F11cjk7wd_m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3087,25 +3020,24 @@
           <t>(0274) 562996</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.5</v>
+        <v>-7.80325</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.80325</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.374845</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/klinik+terapi+medis+pakualaman/@-7.8032504,110.3568206,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5780e4253b87:0x985c855d42318cca!8m2!3d-7.8032504!4d110.374845!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARJhY3VwdW5jdHVyZV9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnlOa3BsWW10blJSQULgAQD6AQQIABA3!16s%2Fg%2F1pzr6xfnz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3124,25 +3056,24 @@
           <t>(0274) 380301</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F65" t="n">
-        <v>3.8</v>
+        <v>-7.805894</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.805894</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.366779</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bengkel+Hati+Ustadz+Dhanu/@-7.8032504,110.3568206,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57855642763f:0x93ec5abc19e5caa8!8m2!3d-7.8058941!4d110.366779!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSS04yVkVhRXgzRUFF4AEA-gEECAAQIA!16s%2Fg%2F1pzqkf6sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bengkel+Hati+Ustadz+Dhanu/@-7.8032504,110.3568206,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57855642763f:0x93ec5abc19e5caa8!8m2!3d-7.8058941!4d110.366779!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSS04yVkVhRXgzRUFF4AEA-gEECAAQIA!16s%2Fg%2F1pzqkf6sx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3165,25 +3096,24 @@
           <t>0831-8189-0073</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>-7.794691</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.794691</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.356628</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yogyakarta+klinik+kuret+dr+Krishna+spOG/@-7.7946913,110.3386033,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59bab5ce9687:0x2d154b8b84c632ca!8m2!3d-7.7946913!4d110.3566277!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vt6jrfrc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yogyakarta+klinik+kuret+dr+Krishna+spOG/@-7.7946913,110.3386033,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59bab5ce9687:0x2d154b8b84c632ca!8m2!3d-7.7946913!4d110.3566277!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vt6jrfrc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3210,25 +3140,24 @@
           <t>0823-2480-9391</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>-7.78955</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.78955</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.354051</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+HOS+Cokroaminoto+%7C+Klinik+Dokter+Gigi+Terdekat+Hos+Cokroaminoto/@-7.7946913,110.3386033,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59af47868177:0x8ec16eaf72dd3f25!8m2!3d-7.7895495!4d110.3540507!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6ZFY4dGNuQkJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11s4s_dw50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+HOS+Cokroaminoto+%7C+Klinik+Dokter+Gigi+Terdekat+Hos+Cokroaminoto/@-7.7946913,110.3386033,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59af47868177:0x8ec16eaf72dd3f25!8m2!3d-7.7895495!4d110.3540507!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6ZFY4dGNuQkJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11s4s_dw50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -3255,25 +3184,24 @@
           <t>(0274) 374524</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.8</v>
+        <v>-7.813988</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.813988</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.368595</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Natasha+Skin+Clinic+Center+(Skin+Care)+Yogyakarta+Katamso/@-7.8139881,110.3505709,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a579a3a927fc5:0x636358ee6e08e7c9!8m2!3d-7.8139881!4d110.3685953!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZEMxNlNYVlJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1hc0r6z33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Natasha+Skin+Clinic+Center+(Skin+Care)+Yogyakarta+Katamso/@-7.8139881,110.3505709,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a579a3a927fc5:0x636358ee6e08e7c9!8m2!3d-7.8139881!4d110.3685953!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZEMxNlNYVlJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F1hc0r6z33?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3300,25 +3228,24 @@
           <t>(0274) 3900792</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.8</v>
+        <v>-7.801349</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.801349</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.359788</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MS+Glow+Aesthetic+Clinic+Yogyakarta/@-7.8013489,110.3417631,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5796fdd04bbf:0xa1e39cad025b45e0!8m2!3d-7.8013489!4d110.3597875!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10ZG5aZldFMUJFQUXgAQD6AQQIABBB!16s%2Fg%2F11s1n_j9zv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3334,22 +3261,21 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>-7.821297</v>
+      </c>
       <c r="G70" t="n">
-        <v>-7.821297</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.379462</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Praktek+Dokter+24+Jam/@-7.8212966,110.3614376,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5762c299acc1:0xa9a26d90cf2eebe8!8m2!3d-7.8212966!4d110.379462!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vbwfzhcq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3368,25 +3294,24 @@
           <t>(0274) 633122</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.8</v>
+        <v>-7.792057</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.792057</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.389625</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Panti+Usada/@-7.7920568,110.371601,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59d77735cb03:0x24d3369b250e9705!8m2!3d-7.7920568!4d110.3896254!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeGJFMU1kbU5CRUFF4AEA-gEECG0QRg!16s%2Fg%2F11b6c9fxq6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Panti+Usada/@-7.7920568,110.371601,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59d77735cb03:0x24d3369b250e9705!8m2!3d-7.7920568!4d110.3896254!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeGJFMU1kbU5CRUFF4AEA-gEECG0QRg!16s%2Fg%2F11b6c9fxq6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3410,22 +3335,21 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.801407</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.801407</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.357994</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Dr.RoY+Yogyakarta/@-7.8014073,110.3399694,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57fadee94245:0xc45733201df8c3fc!8m2!3d-7.8014073!4d110.3579938!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11vr4593j3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3444,25 +3368,24 @@
           <t>(0274) 547303</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.6</v>
+        <v>-7.799394</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.799394</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.371969</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Pakualaman+Yogyakarta/@-7.7993938,110.3539448,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5786c9085feb:0x9e09d1fbc3c52134!8m2!3d-7.7993938!4d110.3719692!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkVObUl0VkZaM0VBReABAPoBBAgAEEg!16s%2Fg%2F1pzs7tzny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Pakualaman+Yogyakarta/@-7.7993938,110.3539448,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5786c9085feb:0x9e09d1fbc3c52134!8m2!3d-7.7993938!4d110.3719692!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkVObUl0VkZaM0VBReABAPoBBAgAEEg!16s%2Fg%2F1pzs7tzny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3489,25 +3412,24 @@
           <t>0838-7799-7070</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.817143</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.817143</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.390669</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Gambiran+%7C+Klinik+Dokter+Gigi+Terdekat+Gambiran/@-7.8171429,110.3726449,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f236f950cd:0xc3764f3c2779ed47!8m2!3d-7.8171429!4d110.3906693!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LTmpWRVRXTlJFQUXgAQD6AQQIABBA!16s%2Fg%2F11kpj38vdn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Gambiran+%7C+Klinik+Dokter+Gigi+Terdekat+Gambiran/@-7.8171429,110.3726449,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f236f950cd:0xc3764f3c2779ed47!8m2!3d-7.8171429!4d110.3906693!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LTmpWRVRXTlJFQUXgAQD6AQQIABBA!16s%2Fg%2F11kpj38vdn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3534,25 +3456,24 @@
           <t>(0274) 561188</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.9</v>
+        <v>-7.784224</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.784224</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.372426</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Natasha+Skin+Clinic+Center,+Yogyakarta+Kotabaru/@-7.7842236,110.3544015,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583218718f35:0xe661df85f3cdf345!8m2!3d-7.7842236!4d110.3724259!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5hZVdGbGMyeG5SUkFC4AEA-gEECAAQQg!16s%2Fg%2F12qfzfy46?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Natasha+Skin+Clinic+Center,+Yogyakarta+Kotabaru/@-7.7842236,110.3544015,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583218718f35:0xe661df85f3cdf345!8m2!3d-7.7842236!4d110.3724259!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5hZVdGbGMyeG5SUkFC4AEA-gEECAAQQg!16s%2Fg%2F12qfzfy46?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3580,22 +3501,21 @@
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>-7.783006</v>
+      </c>
       <c r="G76" t="n">
-        <v>-7.783006</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.364086</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Gigi+Jogja+-+FDC+Tugu+Diponegoro/@-7.7830057,110.3460615,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59dc008eba5d:0x6b0e56055d5dc9c8!8m2!3d-7.7830057!4d110.3640859!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5hTkUweU56UlJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11rg3fyzwj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3614,25 +3534,24 @@
           <t>(0274) 581717</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.1</v>
+        <v>-7.784278</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.784278</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.374946</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LBC+Skin+Clinic+Centre/@-7.7842777,110.3569215,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a599dbf04e557:0x51e887de789ddd82!8m2!3d-7.7842777!4d110.3749459!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MYVhOZmJGbG5FQUXgAQD6AQQIABA1!16s%2Fg%2F11j842_23_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LBC+Skin+Clinic+Centre/@-7.7842777,110.3569215,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a599dbf04e557:0x51e887de789ddd82!8m2!3d-7.7842777!4d110.3749459!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5MYVhOZmJGbG5FQUXgAQD6AQQIABA1!16s%2Fg%2F11j842_23_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -3655,25 +3574,24 @@
           <t>0878-3833-6309</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>-7.797961</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.797961</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.376793</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hipnoterapi+di+jogja+%2F+Klinik+Pakualaman/@-7.7842777,110.3569215,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57804cdbcf17:0xc8202fd6293b8058!8m2!3d-7.7979615!4d110.3767929!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWVoxQmhhSEpSUlJBQuABAPoBBAgAECE!16s%2Fg%2F11f0wpb0wz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hipnoterapi+di+jogja+%2F+Klinik+Pakualaman/@-7.7842777,110.3569215,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57804cdbcf17:0xc8202fd6293b8058!8m2!3d-7.7979615!4d110.3767929!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWVoxQmhhSEpSUlJBQuABAPoBBAgAECE!16s%2Fg%2F11f0wpb0wz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3696,25 +3614,24 @@
           <t>(0274) 588991</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.2</v>
+        <v>-7.802024</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.802024</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.396039</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Naavagreen+Natural+Skin+Care+Yogyakarta+Kusumanegara/@-7.8020245,110.3780149,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57642c7ed02b:0x2719e884030af7fb!8m2!3d-7.8020245!4d110.3960393!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJrTlRacFFqUlJSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F1pzprc7yn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Naavagreen+Natural+Skin+Care+Yogyakarta+Kusumanegara/@-7.8020245,110.3780149,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57642c7ed02b:0x2719e884030af7fb!8m2!3d-7.8020245!4d110.3960393!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJrTlRacFFqUlJSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F1pzprc7yn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3737,25 +3654,24 @@
           <t>0817-310-170</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.4</v>
+        <v>-7.810727</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.810727</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.321269</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Firdaus+UMY+Boga/@-7.8107266,110.3032444,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af80fae3fe0bf:0xea27bcdd4c4c9d51!8m2!3d-7.8107266!4d110.3212688!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNM2FWOXFZbU5uRUFF4AEA-gEFCM4BEDQ!16s%2Fg%2F11c7_v_stx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Firdaus+UMY+Boga/@-7.8107266,110.3032444,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7af80fae3fe0bf:0xea27bcdd4c4c9d51!8m2!3d-7.8107266!4d110.3212688!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNM2FWOXFZbU5uRUFF4AEA-gEFCM4BEDQ!16s%2Fg%2F11c7_v_stx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3778,25 +3694,24 @@
           <t>0821-2985-5818</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>3.5</v>
+        <v>-7.801367</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.801367</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Sehat+Zamatera/@-7.8013672,110.3467324,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2dd629763369c7c5:0x330bfb5c927dc366!8m2!3d-7.8013672!4d110.3647568!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sr89tgj5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Sehat+Zamatera/@-7.8013672,110.3467324,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2dd629763369c7c5:0x330bfb5c927dc366!8m2!3d-7.8013672!4d110.3647568!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11sr89tgj5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3816,22 +3731,21 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>-7.788025</v>
+      </c>
       <c r="G82" t="n">
-        <v>-7.788025</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.372145</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Asia+Medika/@-7.8013672,110.3467324,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a582ede4ca29d:0x30b717c39194d90d!8m2!3d-7.7880245!4d110.3721452!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1hc7zddvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3850,25 +3764,24 @@
           <t>0821-3442-3542</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.2</v>
+        <v>-7.765274</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.765274</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.426816</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+DK+~+Klinik+Vaksinasi+Internasional/@-7.7652736,110.408792,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5a277acd32e5:0x6f236653afcaed7f!8m2!3d-7.7652736!4d110.4268164!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGJVNW1VMGgzRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11b6nhgk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+DK+~+Klinik+Vaksinasi+Internasional/@-7.7652736,110.408792,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5a277acd32e5:0x6f236653afcaed7f!8m2!3d-7.7652736!4d110.4268164!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGJVNW1VMGgzRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11b6nhgk0h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -3892,22 +3805,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.797041</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.797041</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.376542</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+KURET+DR.+OCHA+YOGYAKARTA/@-7.7970411,110.3585176,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a572ea992475b:0x7b45f6dc38b5d9f!8m2!3d-7.7970411!4d110.376542!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11vzbmlwvc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3926,25 +3838,24 @@
           <t>(0274) 411421</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.6</v>
+        <v>-7.821722</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.821722</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.366576</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Fisioterapi+Murono/@-7.8217221,110.3485512,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578b2d813493:0xa801eb52b7a4d674!8m2!3d-7.8217221!4d110.3665756!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSa2QxbDFUWEJuUlJBQuABAPoBBAgAED0!16s%2Fg%2F11y1f9gc83?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3967,25 +3878,24 @@
           <t>0811-2639-309</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.8</v>
+        <v>-7.799004</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.799004</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.352589</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Beauty+Lux+Skin+Care+-+HOS+Cokroaminoto/@-7.7990038,110.3345649,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f748e87755:0x879a4a9a6b606fd5!8m2!3d-7.7990038!4d110.3525893!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmlj4AEA!16s%2Fg%2F11h1ktthhd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4005,22 +3915,21 @@
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.793246</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.793246</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.366348</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+Dr.+RAKA+OBAATT+BBIUUSS+TTIDDURRR+YOGYAKARTA/@-7.7932458,110.3483234,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a599abae9ad9b:0xa4d256c8149b6c35!8m2!3d-7.7932458!4d110.3663478!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11vym1zp0x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4039,25 +3948,24 @@
           <t>0812-3480-3366</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.9</v>
+        <v>-7.823322</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.823322</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.385487</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Alzetta+Aesthetic+Clinic/@-7.8233225,110.3674628,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57803307f473:0x579bdac490ebf61c!8m2!3d-7.8233225!4d110.3854872!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVE1TjJKUFR6WlJSUkFC4AEA-gEECAAQOw!16s%2Fg%2F11s0wm03h0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4081,22 +3989,21 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-7.803573</v>
+      </c>
       <c r="G89" t="n">
-        <v>-7.803573</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.355901</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Ngampilan/@-7.8035729,110.3378766,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578cc3e88595:0xa1c876c11700b37c!8m2!3d-7.8035729!4d110.355901!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhaemhFZWtkbkVBReABAPoBBQicARA6!16s%2Fg%2F1ptwj1rvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4116,22 +4023,21 @@
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-7.803627</v>
+      </c>
       <c r="G90" t="n">
-        <v>-7.803627</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.359427</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/TEMPAT+KLINIK+AABBOORSSSII+JOGJA/@-7.8035729,110.3378766,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a570a39720101:0x64cecf7c2ac697e!8m2!3d-7.8036267!4d110.3594274!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11y3kzcrk8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4155,22 +4061,21 @@
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>-7.817912</v>
+      </c>
       <c r="G91" t="n">
-        <v>-7.817912</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.355927</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Pugeran+%7C+Klinik+Dokter+Gigi+Terdekat/@-7.8035729,110.3378766,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a570b1caabf3d:0xb6930ddbada57ab5!8m2!3d-7.8179122!4d110.3559273!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ4YkdaeGRXOUJSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11hf00hkx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4190,22 +4095,21 @@
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.791699</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.791699</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.385998</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/R+Dental+Baciro+Yogyakarta/@-7.7916986,110.3679738,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59d692cf56cd:0xa875c3feed75ac29!8m2!3d-7.7916986!4d110.3859982!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDT1RSdFFWcDNFQUXgAQD6AQQIABBG!16s%2Fg%2F11bw1_fwvz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4228,25 +4132,24 @@
           <t>0858-6858-0799</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>-7.864561</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.864561</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.408207</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Cita+Sehat+Yogyakarta+(Pleret)/@-7.8645612,110.3901825,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a572775d064dd:0x57af0f27a05411ba!8m2!3d-7.8645612!4d110.4082069!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNNWJqbDZabGgzRUFF4AEA-gEFCPUHEDY!16s%2Fg%2F11t9qxmwvd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Cita+Sehat+Yogyakarta+(Pleret)/@-7.8645612,110.3901825,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a572775d064dd:0x57af0f27a05411ba!8m2!3d-7.8645612!4d110.4082069!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNNWJqbDZabGgzRUFF4AEA-gEFCPUHEDY!16s%2Fg%2F11t9qxmwvd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4270,22 +4173,21 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>-7.819827</v>
+      </c>
       <c r="G94" t="n">
-        <v>-7.819827</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.366566</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+EL-FAD'S+Yogyakarta/@-7.8198268,110.348542,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57a32f2662fd:0x2529d0349adf546c!8m2!3d-7.8198268!4d110.3665664!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11b6_gq17c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4308,25 +4210,24 @@
           <t>0812-1520-2756</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.9</v>
+        <v>-7.805161</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.805161</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.34795</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kecantikan+Jogja+Griya+Green+Beauty+(GGB)/@-7.8051609,110.3299252,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f19add35a5:0x9483a54ce4cb773a!8m2!3d-7.8051609!4d110.3479496!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51Y2pWTVpqQlJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11fz49tnrr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kecantikan+Jogja+Griya+Green+Beauty+(GGB)/@-7.8051609,110.3299252,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f19add35a5:0x9483a54ce4cb773a!8m2!3d-7.8051609!4d110.3479496!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51Y2pWTVpqQlJSUkFC4AEA-gEECAAQNw!16s%2Fg%2F11fz49tnrr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -4353,25 +4254,24 @@
           <t>0813-1221-6946</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>-7.883974</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.883974</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.352228</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Cita+Sehat/@-7.8839737,110.3342035,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a55ff649cafc7:0x808de91fc14f7d8!8m2!3d-7.8839737!4d110.3522279!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk1ISTNjRGRuUlJBQuABAPoBBAgAED8!16s%2Fg%2F11j21_w8_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Cita+Sehat/@-7.8839737,110.3342035,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a55ff649cafc7:0x808de91fc14f7d8!8m2!3d-7.8839737!4d110.3522279!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMk1ISTNjRGRuUlJBQuABAPoBBAgAED8!16s%2Fg%2F11j21_w8_d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4391,22 +4291,21 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.796402</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.796402</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.377868</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/klinik+utama+Parahita+Yogyakarta/@-7.7964017,110.359844,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57004e111cbf:0x62179a008ddc048f!8m2!3d-7.7964017!4d110.3778684!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEObWVkaWNhbF9jbGluaWPgAQA!16s%2Fg%2F11vwp7yyth?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4429,25 +4328,24 @@
           <t>0812-1530-3355</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.9</v>
+        <v>-7.817414</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.817414</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.386225</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dental.YK/@-7.8174137,110.3682004,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57fe451db729:0xdf613a408c89db39!8m2!3d-7.8174137!4d110.3862248!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJFYlUxcFZXaDNSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11rwphbwwr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dental.YK/@-7.8174137,110.3682004,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57fe451db729:0xdf613a408c89db39!8m2!3d-7.8174137!4d110.3862248!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJFYlUxcFZXaDNSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11rwphbwwr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -4474,25 +4372,24 @@
           <t>0895-1022-8484</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>-7.785149</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.785149</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.373121</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Dokter+THT+(dr.+Dika+Amelinda+,+Sp.THT-KL)/@-7.7851487,110.3550968,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59fbe8a79e8b:0x9d7b6706660c6af2!8m2!3d-7.7851487!4d110.3731212!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBvdG9sYXJ5bmdvbG9naXN0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJZZGtwcWJUbFJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11t7sjmdmf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Dokter+THT+(dr.+Dika+Amelinda+,+Sp.THT-KL)/@-7.7851487,110.3550968,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59fbe8a79e8b:0x9d7b6706660c6af2!8m2!3d-7.7851487!4d110.3731212!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBvdG9sYXJ5bmdvbG9naXN0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJZZGtwcWJUbFJSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11t7sjmdmf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4520,22 +4417,21 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-7.736097</v>
+      </c>
       <c r="G100" t="n">
-        <v>-7.736097</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.47875</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+RH+Medika+Kalasan+(Umum+dan+BPJS)/@-7.736097,110.4607252,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5b0926b5069f:0x6e86304528393719!8m2!3d-7.736097!4d110.4787496!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRM2NsQlRSRWhCRUFF4AEA-gEECAAQQw!16s%2Fg%2F11cn9wwl83?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4558,25 +4454,24 @@
           <t>0838-1818-5789</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>-7.771982</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.771982</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.36115</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Jl.+Magelang+%7C+Klinik+Dokter+Gigi+Terdekat+Jogja/@-7.771982,110.3431259,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5910de50304d:0x2f53c3cfe2815e59!8m2!3d-7.771982!4d110.3611503!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YYlZsaVRHWm5FQUXgAQD6AQQIABA4!16s%2Fg%2F11sn95fc4m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Jl.+Magelang+%7C+Klinik+Dokter+Gigi+Terdekat+Jogja/@-7.771982,110.3431259,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5910de50304d:0x2f53c3cfe2815e59!8m2!3d-7.771982!4d110.3611503!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5YYlZsaVRHWm5FQUXgAQD6AQQIABA4!16s%2Fg%2F11sn95fc4m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -4599,25 +4494,24 @@
           <t>(0274) 562327</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.1</v>
+        <v>-7.798273</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.798273</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.362332</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LBC+Bhayangkara/@-7.7982726,110.3443077,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5789a27c55bb:0x8e57a379dc35d246!8m2!3d-7.7982726!4d110.3623321!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zZWpkVFFVOW5FQUXgAQD6AQQIABBG!16s%2Fg%2F11crzqtp1d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LBC+Bhayangkara/@-7.7982726,110.3443077,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5789a27c55bb:0x8e57a379dc35d246!8m2!3d-7.7982726!4d110.3623321!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBza2luX2NhcmVfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0zZWpkVFFVOW5FQUXgAQD6AQQIABBG!16s%2Fg%2F11crzqtp1d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4644,25 +4538,24 @@
           <t>(0274) 586641</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.8</v>
+        <v>-7.780805</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.780805</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.366658</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NMW+skin+care/@-7.780805,110.3486337,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583a072a7697:0xc60fb769d4a099a1!8m2!3d-7.780805!4d110.3666581!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZXJtYXRvbG9naXN0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJFYjB0SWJXdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11b7l4k63r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/NMW+skin+care/@-7.780805,110.3486337,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583a072a7697:0xc60fb769d4a099a1!8m2!3d-7.780805!4d110.3666581!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZXJtYXRvbG9naXN0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJFYjB0SWJXdEJSUkFC4AEA-gEECAAQSQ!16s%2Fg%2F11b7l4k63r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4689,25 +4582,24 @@
           <t>0851-0366-1655</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>5</v>
+      </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>-7.821171</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.821171</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.368123</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DENTES+Parangtritis/@-7.8211708,110.3500985,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57a36780b8cb:0x29c8e640360f7f5e!8m2!3d-7.8211708!4d110.3681229!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MZUZrek5uQkJSUkFC4AEA-gEECAAQQw!16s%2Fg%2F11f27r0sbr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DENTES+Parangtritis/@-7.8211708,110.3500985,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57a36780b8cb:0x29c8e640360f7f5e!8m2!3d-7.8211708!4d110.3681229!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MZUZrek5uQkJSUkFC4AEA-gEECAAQQw!16s%2Fg%2F11f27r0sbr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4734,25 +4626,24 @@
           <t>(0274) 388679</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
       <c r="F105" t="n">
-        <v>3</v>
+        <v>-7.820575</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.820575</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.361481</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Puskesmas+Mantrijeron/@-7.8211708,110.3500985,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57bdc6bc7931:0x55b5884c8ee543e5!8m2!3d-7.8205747!4d110.3614812!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARVwdWJsaWNfbWVkaWNhbF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlBNbVo1VWt0M0VBReABAPoBBAgAEEE!16s%2Fg%2F1ptxcj1d1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4771,25 +4662,24 @@
           <t>(0274) 512739</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F106" t="n">
-        <v>3.9</v>
+        <v>-7.78295</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.78295</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.384923</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Medico+Dental+Center/@-7.78295,110.3668982,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cdc50f4189:0x3dc090286a910d65!8m2!3d-7.78295!4d110.3849226!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5hTFVwVGJXcDNSUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm6d56lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Medico+Dental+Center/@-7.78295,110.3668982,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59cdc50f4189:0x3dc090286a910d65!8m2!3d-7.78295!4d110.3849226!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5hTFVwVGJXcDNSUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm6d56lp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4812,25 +4702,24 @@
           <t>0813-3787-5889</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>-7.802952</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.802952</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.356885</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TERAPHY+KEBUGARAN/@-7.8029521,110.3388604,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57c7b5635d9b:0x442c39096682c883!8m2!3d-7.8029521!4d110.3568848!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEUcGh5c2lvdGhlcmFweV9jZW50ZXLgAQA!16s%2Fg%2F11h_zc3_km?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TERAPHY+KEBUGARAN/@-7.8029521,110.3388604,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57c7b5635d9b:0x442c39096682c883!8m2!3d-7.8029521!4d110.3568848!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEUcGh5c2lvdGhlcmFweV9jZW50ZXLgAQA!16s%2Fg%2F11h_zc3_km?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4857,25 +4746,24 @@
           <t>(0274) 620333</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F108" t="n">
-        <v>3.1</v>
+        <v>-7.792548</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.792548</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.353008</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RS+Ludira+Husada+Tama/@-7.8029521,110.3388604,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a581eaed24789:0xc69089e3e4a74854!8m2!3d-7.7925481!4d110.3530077!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBnZW5lcmFsX2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5FTm04M2EzcDNSUkFC4AEA-gEECDkQRA!16s%2Fg%2F11g_3l1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RS+Ludira+Husada+Tama/@-7.8029521,110.3388604,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a581eaed24789:0xc69089e3e4a74854!8m2!3d-7.7925481!4d110.3530077!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSARBnZW5lcmFsX2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5FTm04M2EzcDNSUkFC4AEA-gEECDkQRA!16s%2Fg%2F11g_3l1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -4898,25 +4786,24 @@
           <t>(0274) 556230</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>5</v>
+      </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>-7.783006</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.783006</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.364086</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Teta+Clinic/@-7.7830057,110.3460615,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583a569823bd:0x1a0358ce0d5d6139!8m2!3d-7.7830057!4d110.3640859!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hm3mvpcg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4935,25 +4822,24 @@
           <t>(0274) 512653</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>-7.801101</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.801101</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.362555</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ristra+Care+Center+-+Yogyakarta/@-7.801101,110.3445304,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57893466d9bf:0xbc97f672cd10cfa5!8m2!3d-7.801101!4d110.3625548!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F1hc5v5t2h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4977,22 +4863,21 @@
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>-7.814006</v>
+      </c>
       <c r="G111" t="n">
-        <v>-7.814006</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.368981</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Novita+Ovisure+Gold+Yogyakarta/@-7.801101,110.3445304,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57ded2275a3b:0xda09b802cce22db2!8m2!3d-7.8140057!4d110.3689812!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOdXJvbG9neV9jbGluaWPgAQA!16s%2Fg%2F11vt6vc096?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5011,25 +4896,24 @@
           <t>0878-0384-1777</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.9</v>
+        <v>-7.791347</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.791347</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.385616</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+d'Smile+Jogja/@-7.791347,110.3675913,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59a194ddd1b5:0xc7f1e5fd53ed8444!8m2!3d-7.791347!4d110.3856157!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTFRWbGRqRkJSUkFC4AEA-gEECAAQRw!16s%2Fg%2F11gnhf868w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+d'Smile+Jogja/@-7.791347,110.3675913,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a59a194ddd1b5:0xc7f1e5fd53ed8444!8m2!3d-7.791347!4d110.3856157!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTFRWbGRqRkJSUkFC4AEA-gEECAAQRw!16s%2Fg%2F11gnhf868w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -5053,22 +4937,21 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>-7.815671</v>
+      </c>
       <c r="G113" t="n">
-        <v>-7.815671</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.38392</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Sang+timur/@-7.8156715,110.3658956,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a5774ad41ec01:0x8bbf8499003b684c!8m2!3d-7.8156715!4d110.38392!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pzrdnkf6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5087,25 +4970,24 @@
           <t>(0274) 550269</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.5</v>
+        <v>-7.784727</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.784727</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.363283</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kulit+dr.+Novita+Harjanti+Msc.,+SpKK/@-7.7847268,110.3452588,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a583b2173bab9:0xe84fc8c97f7b5960!8m2!3d-7.7847268!4d110.3632832!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11fyzcq23f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5124,25 +5006,24 @@
           <t>(0274) 618400</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>-7.799598</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.799598</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.351768</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Perawatan+Luka/@-7.7995985,110.3337437,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f4ff5a5611:0xf48bb1bb1023d76e!8m2!3d-7.7995985!4d110.3517681!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUU9IWlRObWhCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11b63bd664?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Perawatan+Luka/@-7.7995985,110.3337437,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57f4ff5a5611:0xf48bb1bb1023d76e!8m2!3d-7.7995985!4d110.3517681!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ5tZWRpY2FsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUU9IWlRObWhCUlJBQuABAPoBBAgAEBM!16s%2Fg%2F11b63bd664?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -5166,22 +5047,21 @@
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>-7.803005</v>
+      </c>
       <c r="G116" t="n">
-        <v>-7.803005</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.369094</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warnan+Dental/@-7.8030046,110.3510697,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a57433eb6aaa3:0x9c16dbeb35a9642e!8m2!3d-7.8030046!4d110.3690941!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhWhgiFmtsaW5payBrb3RhIHlvZ3lha2FydGGSAQ1kZW50YWxfY2xpbmljmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIxTFUxWVVFUjNFQUXgAQD6AQQIExBE!16s%2Fg%2F11t503mg81?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5201,22 +5081,21 @@
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-7.800728</v>
+      </c>
       <c r="G117" t="n">
-        <v>-7.800728</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.362119</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+VCT/@-7.8030046,110.3510697,15z/data=!4m10!1m2!2m1!1sKlinik+Kota+Yogyakarta!3m6!1s0x2e7a578934fbb46d:0x9715943cd7426c21!8m2!3d-7.8007278!4d110.3621189!15sChZLbGluaWsgS290YSBZb2d5YWthcnRhkgEOd2Fsa19pbl9jbGluaWPgAQA!16s%2Fg%2F1pztyww0p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
